--- a/Scan/Scan.xlsx
+++ b/Scan/Scan.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blelloch (Exclusive Scan)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blelloch (Exclusive Scan, Seg)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Verify</t>
   </si>
@@ -47,12 +47,30 @@
   <si>
     <t>Tmp</t>
   </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Remember</t>
+  </si>
+  <si>
+    <t>Step 2-a</t>
+  </si>
+  <si>
+    <t>Step 2-b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +142,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +233,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -726,7 +756,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <f>B3</f>
+        <f t="shared" ref="B4:B10" si="1">B3</f>
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -734,15 +764,15 @@
         <v>3</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D9" si="1">D3</f>
+        <f t="shared" ref="D4:D9" si="2">D3</f>
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4" si="2">D3+E3</f>
+        <f t="shared" ref="E4" si="3">D3+E3</f>
         <v>7</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F8" si="3">F3</f>
+        <f t="shared" ref="F4:F8" si="4">F3</f>
         <v>5</v>
       </c>
       <c r="G4" s="3">
@@ -750,15 +780,15 @@
         <v>11</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H10" si="4">H3</f>
+        <f t="shared" ref="H4:H10" si="5">H3</f>
         <v>7</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4" si="5">H3+I3</f>
+        <f t="shared" ref="I4" si="6">H3+I3</f>
         <v>15</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J5" si="6">J3</f>
+        <f t="shared" ref="J4:J5" si="7">J3</f>
         <v>9</v>
       </c>
       <c r="K4" s="1">
@@ -766,7 +796,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L10" si="7">L3</f>
+        <f t="shared" ref="L4:L10" si="8">L3</f>
         <v>11</v>
       </c>
       <c r="M4" s="1">
@@ -774,19 +804,19 @@
         <v>23</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N8" si="8">N3</f>
+        <f t="shared" ref="N4:N8" si="9">N3</f>
         <v>13</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" ref="O4" si="9">N3+O3</f>
+        <f t="shared" ref="O4" si="10">N3+O3</f>
         <v>13</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" ref="P4:P10" si="10">P3</f>
+        <f t="shared" ref="P4:P10" si="11">P3</f>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4" si="11">P3+Q3</f>
+        <f t="shared" ref="Q4" si="12">P3+Q3</f>
         <v>0</v>
       </c>
       <c r="T4" s="1">
@@ -812,15 +842,15 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <f>B4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C9" si="12">C4</f>
+        <f t="shared" ref="C5:C9" si="13">C4</f>
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E5" s="1">
@@ -828,31 +858,31 @@
         <v>10</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G9" si="13">G4</f>
+        <f t="shared" ref="G5:G9" si="14">G4</f>
         <v>11</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5" si="14">G4+I4</f>
+        <f t="shared" ref="I5" si="15">G4+I4</f>
         <v>26</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K9" si="15">K4</f>
+        <f t="shared" ref="K5:K9" si="16">K4</f>
         <v>19</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M5" s="1">
@@ -860,19 +890,19 @@
         <v>42</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="O5" s="12">
-        <f t="shared" ref="O5:O9" si="16">O4</f>
+        <f t="shared" ref="O5:O9" si="17">O4</f>
         <v>13</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ref="Q5" si="17">O4+Q4</f>
+        <f t="shared" ref="Q5" si="18">O4+Q4</f>
         <v>13</v>
       </c>
       <c r="U5" s="1">
@@ -892,37 +922,37 @@
         <v>3</v>
       </c>
       <c r="Z5" s="1" t="str">
-        <f t="shared" ref="Z5:Z12" si="18">DEC2BIN(Y5)</f>
+        <f t="shared" ref="Z5:Z12" si="19">DEC2BIN(Y5)</f>
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <f>B5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6:E8" si="19">E5</f>
+        <f t="shared" ref="E6:E8" si="20">E5</f>
         <v>10</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I6" s="1">
@@ -934,27 +964,27 @@
         <v>9</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M6" s="6">
-        <f t="shared" ref="M6:M8" si="20">M5</f>
+        <f t="shared" ref="M6:M8" si="21">M5</f>
         <v>42</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q6" s="2">
@@ -970,77 +1000,77 @@
         <v>11</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" ref="W6:W7" si="21">W5*2</f>
+        <f t="shared" ref="W6:W7" si="22">W5*2</f>
         <v>4</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" ref="Y6:Y7" si="22">Y5*2+1</f>
+        <f t="shared" ref="Y6:Y7" si="23">Y5*2+1</f>
         <v>7</v>
       </c>
       <c r="Z6" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" ref="I7:J7" si="23">I6</f>
+        <f t="shared" ref="I7:J7" si="24">I6</f>
         <v>36</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M7" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="O7" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q7" s="2">
@@ -1056,45 +1086,45 @@
         <v>1</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="Z7" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <f>B7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I8" s="1">
@@ -1106,27 +1136,27 @@
         <v>9</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="O8" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q8" s="2">
@@ -1142,15 +1172,15 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E9" s="7">
@@ -1162,11 +1192,11 @@
         <v>5</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I9" s="4">
@@ -1178,11 +1208,11 @@
         <v>9</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M9" s="7">
@@ -1194,11 +1224,11 @@
         <v>13</v>
       </c>
       <c r="O9" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q9" s="16">
@@ -1232,13 +1262,13 @@
         <v>15</v>
       </c>
       <c r="Z9" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
-        <f>B9</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C10" s="7">
@@ -1254,15 +1284,15 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10" si="24">F9</f>
+        <f t="shared" ref="F10" si="25">F9</f>
         <v>5</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:P10" si="25">G4</f>
+        <f t="shared" ref="G10" si="26">G4</f>
         <v>11</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I10" s="15">
@@ -1270,31 +1300,31 @@
         <v>10</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" ref="J10" si="26">J9</f>
+        <f t="shared" ref="J10" si="27">J9</f>
         <v>9</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" ref="K10:P10" si="27">K4</f>
+        <f t="shared" ref="K10" si="28">K4</f>
         <v>19</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10" si="28">Q9</f>
+        <f t="shared" ref="M10" si="29">Q9</f>
         <v>36</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" ref="N10" si="29">N9</f>
+        <f t="shared" ref="N10" si="30">N9</f>
         <v>13</v>
       </c>
       <c r="O10" s="13">
-        <f t="shared" ref="O10:P10" si="30">O4</f>
+        <f t="shared" ref="O10" si="31">O4</f>
         <v>13</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q10" s="16">
@@ -1313,7 +1343,7 @@
         <v>6</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f t="shared" ref="V10:V12" si="31">DEC2BIN(U10)</f>
+        <f t="shared" ref="V10:V12" si="32">DEC2BIN(U10)</f>
         <v>110</v>
       </c>
       <c r="W10" s="1">
@@ -1321,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f t="shared" ref="X10:X12" si="32">DEC2BIN(W10)</f>
+        <f t="shared" ref="X10:X12" si="33">DEC2BIN(W10)</f>
         <v>100</v>
       </c>
       <c r="Y10" s="1">
@@ -1329,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>111</v>
       </c>
     </row>
@@ -1401,27 +1431,27 @@
         <v>91</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11:U12" si="33">FLOOR(U10/2,1)</f>
+        <f t="shared" ref="U11:U12" si="34">FLOOR(U10/2,1)</f>
         <v>3</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" ref="W11:W12" si="34">W10/2</f>
+        <f t="shared" ref="W11:W12" si="35">W10/2</f>
         <v>2</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" ref="Y11:Y12" si="35">(Y10-1)/2</f>
+        <f t="shared" ref="Y11:Y12" si="36">(Y10-1)/2</f>
         <v>3</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
     </row>
@@ -1443,75 +1473,75 @@
         <v>6</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:Q12" si="36">G11</f>
+        <f t="shared" ref="F12" si="37">G11</f>
         <v>10</v>
       </c>
       <c r="G12" s="15">
-        <f t="shared" ref="G12" si="37">F11+G11</f>
+        <f t="shared" ref="G12" si="38">F11+G11</f>
         <v>15</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12:Q12" si="38">I11</f>
+        <f t="shared" ref="H12" si="39">I11</f>
         <v>21</v>
       </c>
       <c r="I12" s="17">
-        <f t="shared" ref="I12" si="39">H11+I11</f>
+        <f t="shared" ref="I12" si="40">H11+I11</f>
         <v>28</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" ref="J12:Q12" si="40">K11</f>
+        <f t="shared" ref="J12" si="41">K11</f>
         <v>36</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" ref="K12" si="41">J11+K11</f>
+        <f t="shared" ref="K12" si="42">J11+K11</f>
         <v>45</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12:Q12" si="42">M11</f>
+        <f t="shared" ref="L12" si="43">M11</f>
         <v>55</v>
       </c>
       <c r="M12" s="17">
-        <f t="shared" ref="M12" si="43">L11+M11</f>
+        <f t="shared" ref="M12" si="44">L11+M11</f>
         <v>66</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" ref="N12:Q12" si="44">O11</f>
+        <f t="shared" ref="N12" si="45">O11</f>
         <v>78</v>
       </c>
       <c r="O12" s="18">
-        <f t="shared" ref="O12" si="45">N11+O11</f>
+        <f t="shared" ref="O12" si="46">N11+O11</f>
         <v>91</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" ref="P12:Q12" si="46">Q11</f>
+        <f t="shared" ref="P12" si="47">Q11</f>
         <v>91</v>
       </c>
       <c r="Q12" s="16">
-        <f t="shared" ref="Q12" si="47">P11+Q11</f>
+        <f t="shared" ref="Q12" si="48">P11+Q11</f>
         <v>91</v>
       </c>
       <c r="U12" s="1">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="1" t="str">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="V12" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="1">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
       <c r="Y12" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
@@ -1531,55 +1561,55 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:Q14" si="48">D14+D3</f>
+        <f t="shared" ref="E14:Q14" si="49">D14+D3</f>
         <v>6</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>15</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>21</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>28</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>36</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>45</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>55</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>66</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>78</v>
       </c>
       <c r="O14" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>91</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>91</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>91</v>
       </c>
     </row>
@@ -1591,13 +1621,263 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="3.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1">
+        <v>13</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8+B6</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:G8" si="0">C8+C6</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <f>G6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H12+H6</f>
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12:N12" si="1">I12+I6</f>
+        <v>15</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <f>H12+$B$10+$G$8</f>
+        <v>21</v>
+      </c>
+      <c r="I13" s="1">
+        <f>I12+$B$10+$G$8</f>
+        <v>28</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13:N13" si="2">J12+$B$10+$G$8</f>
+        <v>36</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Scan/Scan.xlsx
+++ b/Scan/Scan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blelloch (Exclusive Scan)" sheetId="1" r:id="rId1"/>
     <sheet name="Blelloch (Exclusive Scan, Seg)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Blelloch (Exclusive Scan, Seg2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Verify</t>
   </si>
@@ -65,12 +66,30 @@
   <si>
     <t>Step 2-b</t>
   </si>
+  <si>
+    <t>Seg Size</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Phase 2a</t>
+  </si>
+  <si>
+    <t>Phase 2b</t>
+  </si>
+  <si>
+    <t>ThreadID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +168,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,6 +263,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1623,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1882,6 +1912,401 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="3.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+      <c r="P5" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1">
+        <v>13</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8+B6</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:G8" si="0">C8+C6</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8+F6</f>
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:I8" si="1">G8+G6</f>
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <f>J8+J6</f>
+        <v>9</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:M8" si="2">K8+K6</f>
+        <v>19</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <f>E6</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9" si="3">I6</f>
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" ref="J9" si="4">M6</f>
+        <v>12</v>
+      </c>
+      <c r="N9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="20">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:I11" si="5">C8</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E11+B9</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J11" s="20">
+        <f>I11+F9</f>
+        <v>26</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="J11:M11" si="6">K8</f>
+        <v>9</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="N11" s="20">
+        <f>M11+J9</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <f>B11+F11</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <f>F12+J11</f>
+        <v>36</v>
+      </c>
+      <c r="N12" s="1">
+        <f>J12+N11</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <f>$B$14+C11</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:G14" si="7">$B$14+D11</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="1">
+        <f>B11+F12</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <f>$F$14+G11</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:I14" si="8">$F$14+H11</f>
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="J14" s="1">
+        <f>J12</f>
+        <v>36</v>
+      </c>
+      <c r="K14" s="1">
+        <f>$J$14+K11</f>
+        <v>45</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14:M14" si="9">$J$14+L11</f>
+        <v>55</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="N14" s="1">
+        <f>N12</f>
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Scan/Scan.xlsx
+++ b/Scan/Scan.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Verify</t>
   </si>
@@ -84,12 +85,24 @@
   <si>
     <t>ThreadID</t>
   </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +189,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,8 +214,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -206,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,24 +267,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,13 +276,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -569,17 +645,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="Z24" sqref="B24:Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="14" width="3.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="11" customWidth="1"/>
+    <col min="2" max="13" width="3.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="25" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="9.140625" style="1"/>
@@ -628,10 +705,10 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="20">
         <v>12</v>
       </c>
-      <c r="O1" s="9">
+      <c r="O1" s="29">
         <v>13</v>
       </c>
       <c r="P1" s="1">
@@ -705,11 +782,11 @@
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="N2" s="8" t="str">
+      <c r="N2" s="24" t="str">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="O2" s="10" t="str">
+      <c r="O2" s="30" t="str">
         <f t="shared" si="0"/>
         <v>1101</v>
       </c>
@@ -735,6 +812,9 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -771,10 +851,10 @@
       <c r="M3" s="1">
         <v>12</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="20">
         <v>13</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="31">
         <v>0</v>
       </c>
       <c r="P3" s="2">
@@ -833,11 +913,11 @@
         <f>L3+M3</f>
         <v>23</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="26">
         <f t="shared" ref="N4:N8" si="9">N3</f>
         <v>13</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="31">
         <f t="shared" ref="O4" si="10">N3+O3</f>
         <v>13</v>
       </c>
@@ -919,11 +999,11 @@
         <f>K4+M4</f>
         <v>42</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="26">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="32">
         <f t="shared" ref="O5:O9" si="17">O4</f>
         <v>13</v>
       </c>
@@ -1005,11 +1085,11 @@
         <f t="shared" ref="M6:M8" si="21">M5</f>
         <v>42</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="26">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="32">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
@@ -1091,11 +1171,11 @@
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="26">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="32">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
@@ -1177,11 +1257,11 @@
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="26">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="32">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
@@ -1249,11 +1329,11 @@
         <f>M5</f>
         <v>42</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="26">
         <f>N8</f>
         <v>13</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="32">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
@@ -1261,7 +1341,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="10">
         <f>I8+Q8</f>
         <v>36</v>
       </c>
@@ -1325,7 +1405,7 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="9">
         <f>E9+I9</f>
         <v>10</v>
       </c>
@@ -1345,11 +1425,11 @@
         <f t="shared" ref="M10" si="29">Q9</f>
         <v>36</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="26">
         <f t="shared" ref="N10" si="30">N9</f>
         <v>13</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="33">
         <f t="shared" ref="O10" si="31">O4</f>
         <v>13</v>
       </c>
@@ -1357,7 +1437,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="10">
         <f>M9+Q9</f>
         <v>78</v>
       </c>
@@ -1406,7 +1486,7 @@
         <f>D3</f>
         <v>3</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="9">
         <f>C10+E10</f>
         <v>3</v>
       </c>
@@ -1421,7 +1501,7 @@
         <f>H3</f>
         <v>7</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="9">
         <f>G10+I10</f>
         <v>21</v>
       </c>
@@ -1437,15 +1517,15 @@
         <f>L3</f>
         <v>11</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="9">
         <f>K10+M10</f>
         <v>55</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="27">
         <f>N3</f>
         <v>13</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="34">
         <f>Q10</f>
         <v>78</v>
       </c>
@@ -1453,7 +1533,7 @@
         <f>P3</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="10">
         <f>O10+Q10</f>
         <v>91</v>
       </c>
@@ -1490,7 +1570,7 @@
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="9">
         <f>B11+C11</f>
         <v>1</v>
       </c>
@@ -1498,7 +1578,7 @@
         <f>E11</f>
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <f>D11+E11</f>
         <v>6</v>
       </c>
@@ -1506,7 +1586,7 @@
         <f t="shared" ref="F12" si="37">G11</f>
         <v>10</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="9">
         <f t="shared" ref="G12" si="38">F11+G11</f>
         <v>15</v>
       </c>
@@ -1514,7 +1594,7 @@
         <f t="shared" ref="H12" si="39">I11</f>
         <v>21</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="11">
         <f t="shared" ref="I12" si="40">H11+I11</f>
         <v>28</v>
       </c>
@@ -1522,7 +1602,7 @@
         <f t="shared" ref="J12" si="41">K11</f>
         <v>36</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="9">
         <f t="shared" ref="K12" si="42">J11+K11</f>
         <v>45</v>
       </c>
@@ -1530,15 +1610,15 @@
         <f t="shared" ref="L12" si="43">M11</f>
         <v>55</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="11">
         <f t="shared" ref="M12" si="44">L11+M11</f>
         <v>66</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="28">
         <f t="shared" ref="N12" si="45">O11</f>
         <v>78</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="35">
         <f t="shared" ref="O12" si="46">N11+O11</f>
         <v>91</v>
       </c>
@@ -1546,7 +1626,7 @@
         <f t="shared" ref="P12" si="47">Q11</f>
         <v>91</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="10">
         <f t="shared" ref="Q12" si="48">P11+Q11</f>
         <v>91</v>
       </c>
@@ -1574,6 +1654,9 @@
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1626,11 +1709,11 @@
         <f t="shared" si="49"/>
         <v>66</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="20">
         <f t="shared" si="49"/>
         <v>78</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="29">
         <f t="shared" si="49"/>
         <v>91</v>
       </c>
@@ -1641,6 +1724,331 @@
       <c r="Q14" s="1">
         <f t="shared" si="49"/>
         <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>3</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="str">
+        <f t="shared" ref="B19:D19" si="50">DEC2BIN(B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="50"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="30" t="str">
+        <f t="shared" ref="E19:F19" si="51">DEC2BIN(E18)</f>
+        <v>11</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <f>B20</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C20+B20</f>
+        <v>3</v>
+      </c>
+      <c r="D21" s="14">
+        <f>D20</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="31">
+        <f>E20+D20</f>
+        <v>3</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3</v>
+      </c>
+      <c r="V21" s="15" t="str">
+        <f>DEC2BIN(U21)</f>
+        <v>11</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="15" t="str">
+        <f>DEC2BIN(Y21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <f>B21</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <f>C21</f>
+        <v>3</v>
+      </c>
+      <c r="D22" s="14">
+        <f>D21</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="31">
+        <f>E21+C21</f>
+        <v>6</v>
+      </c>
+      <c r="U22" s="15">
+        <f>FLOOR(U21/2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="15" t="str">
+        <f>DEC2BIN(U22)</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="15">
+        <f>W21*2</f>
+        <v>2</v>
+      </c>
+      <c r="Y22" s="15">
+        <f>Y21*2+1</f>
+        <v>3</v>
+      </c>
+      <c r="Z22" s="15" t="str">
+        <f>DEC2BIN(Y22)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <f>B22</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C22</f>
+        <v>3</v>
+      </c>
+      <c r="D23" s="14">
+        <f>D22</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="31">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <f>R23+C23</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <f>B23</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <f>D23</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="35">
+        <f>E23+C23</f>
+        <v>3</v>
+      </c>
+      <c r="R24" s="15">
+        <f>S23</f>
+        <v>3</v>
+      </c>
+      <c r="S24" s="1">
+        <f>R24+D24</f>
+        <v>6</v>
+      </c>
+      <c r="U24" s="1">
+        <f>U21</f>
+        <v>3</v>
+      </c>
+      <c r="V24" s="15" t="str">
+        <f>DEC2BIN(U24)</f>
+        <v>11</v>
+      </c>
+      <c r="W24" s="1">
+        <f>W22</f>
+        <v>2</v>
+      </c>
+      <c r="Y24" s="1">
+        <f>Y22</f>
+        <v>3</v>
+      </c>
+      <c r="Z24" s="15" t="str">
+        <f>DEC2BIN(Y24)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <f>C24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f>C24+B24</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <f>E24</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="35">
+        <f>E24+D24</f>
+        <v>6</v>
+      </c>
+      <c r="R25" s="15">
+        <f>S24</f>
+        <v>6</v>
+      </c>
+      <c r="U25" s="15">
+        <f>FLOOR(U24/2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V25" s="15" t="str">
+        <f>DEC2BIN(U25)</f>
+        <v>1</v>
+      </c>
+      <c r="W25" s="15">
+        <f>W24/2</f>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="15">
+        <f>(Y24-1)/2</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="15" t="str">
+        <f>DEC2BIN(Y25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <f>B27+B20</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <f>C27+C20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="8" t="str">
+        <f t="shared" ref="B32:E32" si="52">DEC2BIN(B31)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="15">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2</v>
+      </c>
+      <c r="D33" s="15">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1793,13 +2201,13 @@
       <c r="N6" s="1">
         <v>13</v>
       </c>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1913,19 +2321,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q14"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="3.7109375" style="1" customWidth="1"/>
+    <col min="18" max="33" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1933,62 +2348,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37">
+        <v>1</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37">
+        <v>2</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37">
+        <v>3</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37">
+        <v>4</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37">
+        <v>5</v>
+      </c>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="36">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -2003,304 +2418,1121 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <v>7</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <v>8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K6" s="1">
         <v>9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <v>10</v>
       </c>
-      <c r="M5" s="1">
-        <v>11</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="M6" s="1">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1">
         <v>12</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O6" s="1">
         <v>13</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P6" s="1">
         <v>14</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q6" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="R6" s="1">
+        <v>16</v>
+      </c>
+      <c r="S6" s="1">
+        <v>17</v>
+      </c>
+      <c r="T6" s="1">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1">
+        <v>19</v>
+      </c>
+      <c r="V6" s="1">
+        <v>20</v>
+      </c>
+      <c r="W6" s="1">
+        <v>21</v>
+      </c>
+      <c r="X6" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H7" s="1">
         <v>7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="1">
         <v>8</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7" s="1">
         <v>9</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="L6" s="1">
-        <v>11</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="L7" s="1">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1">
         <v>12</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N7" s="1">
         <v>13</v>
       </c>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="O7" s="1">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>16</v>
+      </c>
+      <c r="R7" s="1">
         <v>17</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8+B6</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ref="D8:G8" si="0">C8+C6</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="S7" s="1">
+        <v>18</v>
+      </c>
+      <c r="T7" s="1">
+        <v>19</v>
+      </c>
+      <c r="U7" s="1">
+        <v>20</v>
+      </c>
+      <c r="V7" s="1">
+        <v>21</v>
+      </c>
+      <c r="W7" s="1">
+        <v>22</v>
+      </c>
+      <c r="X7" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9+B7</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:E9" si="0">C9+C7</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <f>F8+F6</f>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f>F9+F7</f>
         <v>5</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" ref="H8:I8" si="1">G8+G6</f>
-        <v>11</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:I9" si="1">G9+G7</f>
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <f>J8+J6</f>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <f>J9+J7</f>
         <v>9</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" ref="L8:M8" si="2">K8+K6</f>
+      <c r="L9" s="1">
+        <f t="shared" ref="L9:M9" si="2">K9+K7</f>
         <v>19</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f>N9+N7</f>
         <v>13</v>
       </c>
-      <c r="B9" s="1">
-        <f>E6</f>
+      <c r="P9" s="1">
+        <f>O9+O7</f>
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>P9+P7</f>
+        <v>42</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <f>R9+R7</f>
+        <v>17</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" ref="T9" si="3">S9+S7</f>
+        <v>35</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" ref="U9" si="4">T9+T7</f>
+        <v>54</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f>V9+V7</f>
+        <v>21</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" ref="X9:Y9" si="5">W9+W7</f>
+        <v>43</v>
+      </c>
+      <c r="Y9" s="12">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <f>E7</f>
         <v>4</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="F9" si="3">I6</f>
+      <c r="C10" s="1">
+        <f>C9</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:E10" si="6">D9</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ref="F10" si="7">I7</f>
         <v>8</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" ref="J9" si="4">M6</f>
+      <c r="G10" s="1">
+        <f>G9</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10" si="8">H9</f>
+        <v>11</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="9">I9</f>
+        <v>18</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10" si="10">M7</f>
         <v>12</v>
       </c>
-      <c r="N9" s="1">
+      <c r="K10" s="1">
+        <f>K9</f>
+        <v>9</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10" si="11">L9</f>
+        <v>19</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ref="M10" si="12">M9</f>
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <f>Q7</f>
+        <v>16</v>
+      </c>
+      <c r="O10" s="1">
+        <f>O9</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="P10" s="1">
+        <f t="shared" ref="P10" si="13">P9</f>
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ref="Q10" si="14">Q9</f>
+        <v>42</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" ref="R10" si="15">U7</f>
+        <v>20</v>
+      </c>
+      <c r="S10" s="1">
+        <f>S9</f>
+        <v>17</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" ref="T10" si="16">T9</f>
+        <v>35</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" ref="U10" si="17">U9</f>
+        <v>54</v>
+      </c>
+      <c r="V10" s="1">
+        <f>X7</f>
+        <v>23</v>
+      </c>
+      <c r="W10" s="1">
+        <f>W9</f>
+        <v>21</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" ref="X10:Y10" si="18">X9</f>
+        <v>43</v>
+      </c>
+      <c r="Y10" s="12">
+        <f t="shared" si="18"/>
+        <v>66</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="20">
-        <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11:I11" si="5">C8</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="5"/>
+      <c r="B12" s="13">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:I12" si="19">C9</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F11" s="20">
-        <f>E11+B9</f>
+      <c r="F12" s="13">
+        <f>E12+B10</f>
         <v>10</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="5"/>
+      <c r="G12" s="1">
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="5"/>
+      <c r="H12" s="1">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="J11" s="20">
-        <f>I11+F9</f>
+      <c r="J12" s="13">
+        <f>I12+F10</f>
         <v>26</v>
       </c>
-      <c r="K11" s="1">
-        <f t="shared" ref="J11:M11" si="6">K8</f>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12:M12" si="20">K9</f>
         <v>9</v>
       </c>
-      <c r="L11" s="1">
-        <f t="shared" si="6"/>
+      <c r="L12" s="1">
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="M11" s="1">
-        <f t="shared" si="6"/>
+      <c r="M12" s="1">
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="N11" s="20">
-        <f>M11+J9</f>
+      <c r="N12" s="13">
+        <f>M12+J10</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="O12" s="1">
+        <f t="shared" ref="O12:Q12" si="21">O9</f>
+        <v>13</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="21"/>
+        <v>42</v>
+      </c>
+      <c r="R12" s="13">
+        <f>Q12+N10</f>
+        <v>58</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" ref="S12:U12" si="22">S9</f>
+        <v>17</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>35</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="22"/>
+        <v>54</v>
+      </c>
+      <c r="V12" s="13">
+        <f>U12+R10</f>
+        <v>74</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" ref="W12:X12" si="23">W9</f>
+        <v>21</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="23"/>
+        <v>43</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f>B11+F11</f>
+      <c r="B13" s="1">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C12</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:E13" si="24">D12</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="1">
+        <f>B13+F12</f>
         <v>10</v>
       </c>
-      <c r="J12" s="1">
-        <f>F12+J11</f>
+      <c r="G13" s="1">
+        <f>G12</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="25">H12</f>
+        <v>11</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="26">I12</f>
+        <v>18</v>
+      </c>
+      <c r="J13" s="1">
+        <f>F13+J12</f>
         <v>36</v>
       </c>
-      <c r="N12" s="1">
-        <f>J12+N11</f>
+      <c r="K13" s="1">
+        <f>K12</f>
+        <v>9</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13" si="27">L12</f>
+        <v>19</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ref="M13" si="28">M12</f>
+        <v>30</v>
+      </c>
+      <c r="N13" s="1">
+        <f>J13+N12</f>
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="O13" s="1">
+        <f>O12</f>
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" ref="P13" si="29">P12</f>
+        <v>27</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ref="Q13" si="30">Q12</f>
+        <v>42</v>
+      </c>
+      <c r="R13" s="1">
+        <f>N13+R12</f>
+        <v>136</v>
+      </c>
+      <c r="S13" s="1">
+        <f>S12</f>
+        <v>17</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" ref="T13" si="31">T12</f>
+        <v>35</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" ref="U13" si="32">U12</f>
+        <v>54</v>
+      </c>
+      <c r="V13" s="1">
+        <f>R13+V12</f>
+        <v>210</v>
+      </c>
+      <c r="W13" s="1">
+        <f>W12</f>
+        <v>21</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" ref="X13" si="33">X12</f>
+        <v>43</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <f>$B$14+C11</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:G14" si="7">$B$14+D11</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="7"/>
+      <c r="B15" s="1">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15+C12</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15+D12</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f>B15+E12</f>
         <v>6</v>
       </c>
-      <c r="F14" s="1">
-        <f>B11+F12</f>
+      <c r="F15" s="1">
+        <f>F13</f>
         <v>10</v>
       </c>
-      <c r="G14" s="1">
-        <f>$F$14+G11</f>
+      <c r="G15" s="1">
+        <f>F15+G12</f>
         <v>15</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" ref="H14:I14" si="8">$F$14+H11</f>
+      <c r="H15" s="1">
+        <f>F15+H12</f>
         <v>21</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="8"/>
+      <c r="I15" s="1">
+        <f>F15+I12</f>
         <v>28</v>
       </c>
-      <c r="J14" s="1">
-        <f>J12</f>
+      <c r="J15" s="1">
+        <f>J13</f>
         <v>36</v>
       </c>
-      <c r="K14" s="1">
-        <f>$J$14+K11</f>
+      <c r="K15" s="1">
+        <f>J15+K12</f>
         <v>45</v>
       </c>
-      <c r="L14" s="1">
-        <f t="shared" ref="L14:M14" si="9">$J$14+L11</f>
+      <c r="L15" s="1">
+        <f>J15+L12</f>
         <v>55</v>
       </c>
-      <c r="M14" s="1">
-        <f t="shared" si="9"/>
+      <c r="M15" s="1">
+        <f>J15+M12</f>
         <v>66</v>
       </c>
-      <c r="N14" s="1">
-        <f>N12</f>
+      <c r="N15" s="1">
+        <f>N13</f>
         <v>78</v>
       </c>
+      <c r="O15" s="1">
+        <f>N15+O12</f>
+        <v>91</v>
+      </c>
+      <c r="P15" s="1">
+        <f>N15+P12</f>
+        <v>105</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>N15+Q12</f>
+        <v>120</v>
+      </c>
+      <c r="R15" s="1">
+        <f>R13</f>
+        <v>136</v>
+      </c>
+      <c r="S15" s="1">
+        <f>R15+S12</f>
+        <v>153</v>
+      </c>
+      <c r="T15" s="1">
+        <f>R15+T12</f>
+        <v>171</v>
+      </c>
+      <c r="U15" s="1">
+        <f>R15+U12</f>
+        <v>190</v>
+      </c>
+      <c r="V15" s="1">
+        <f>V13</f>
+        <v>210</v>
+      </c>
+      <c r="W15" s="1">
+        <f>V15+W12</f>
+        <v>231</v>
+      </c>
+      <c r="X15" s="1">
+        <f>V15+X12</f>
+        <v>253</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f>B18+B7</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:X18" si="34">C18+C7</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="34"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="34"/>
+        <v>28</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="34"/>
+        <v>36</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="34"/>
+        <v>45</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="34"/>
+        <v>55</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="34"/>
+        <v>66</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="34"/>
+        <v>78</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="34"/>
+        <v>91</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="34"/>
+        <v>105</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="34"/>
+        <v>120</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="34"/>
+        <v>136</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="34"/>
+        <v>153</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="34"/>
+        <v>171</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="34"/>
+        <v>190</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="34"/>
+        <v>210</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="34"/>
+        <v>231</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="34"/>
+        <v>253</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>1</v>
+      </c>
+      <c r="U27" s="17">
+        <v>4</v>
+      </c>
+      <c r="V27" s="16">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P28" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>3</v>
+      </c>
+      <c r="U28" s="17">
+        <v>6</v>
+      </c>
+      <c r="V28" s="16">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="20"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P30" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="20"/>
+      <c r="U30" s="23">
+        <v>4</v>
+      </c>
+      <c r="V30" s="20"/>
+      <c r="Z30" s="23">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="21"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P32" s="16">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>13</v>
+      </c>
+      <c r="U32" s="17">
+        <v>16</v>
+      </c>
+      <c r="V32" s="16">
+        <v>17</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>20</v>
+      </c>
+      <c r="AA32" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P33" s="16">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>15</v>
+      </c>
+      <c r="U33" s="17">
+        <v>18</v>
+      </c>
+      <c r="V33" s="16">
+        <v>19</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>22</v>
+      </c>
+      <c r="AA33" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="20"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="22"/>
+    </row>
+    <row r="35" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P35" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="20"/>
+      <c r="U35" s="23">
+        <v>7</v>
+      </c>
+      <c r="V35" s="20"/>
+      <c r="Z35" s="23">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="22"/>
+    </row>
+    <row r="37" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P37" s="19">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>25</v>
+      </c>
+      <c r="U37" s="18">
+        <v>28</v>
+      </c>
+      <c r="V37" s="19">
+        <v>29</v>
+      </c>
+      <c r="Z37" s="18">
+        <v>32</v>
+      </c>
+      <c r="AA37" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P38" s="19">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>27</v>
+      </c>
+      <c r="U38" s="18">
+        <v>30</v>
+      </c>
+      <c r="V38" s="19">
+        <v>31</v>
+      </c>
+      <c r="Z38" s="18">
+        <v>34</v>
+      </c>
+      <c r="AA38" s="18">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="N4:Q4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
